--- a/phase 1/specs.xlsx
+++ b/phase 1/specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SmN\Documents\SAMAB_CPU\phase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A761A75-3F56-42DA-9F73-9BCED3A60D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C40049-142F-409F-92E5-AFFFC0220F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B007590-2DB6-4104-996E-3AE9ACE793DB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>R-Type</t>
   </si>
@@ -82,6 +82,63 @@
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>Control Unit Truth Table</t>
+  </si>
+  <si>
+    <t>OpCode</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>MULTIPLY</t>
+  </si>
+  <si>
+    <t>DIVIDE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>I-Type</t>
+  </si>
+  <si>
+    <t>Function = DON’T CARE</t>
   </si>
 </sst>
 </file>
@@ -105,24 +162,497 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,169 +969,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EE0B2F-046E-4A19-9255-8462A11DF5ED}">
-  <dimension ref="A3:E11"/>
+  <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="L7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="M7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="M8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="J9" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="K9" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="L10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="M10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="L13" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
